--- a/downloaded_files/EPES302_Tutorial-35908.xlsx
+++ b/downloaded_files/EPES302_Tutorial-35908.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Sameh Ahmed Salem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد عبدالرؤوف عبدالرؤوف اسماعيل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABDELRAHMAN MOHAMED ABDELRAOUF ABDELRAOUF ISMAIL</x:t>
   </x:si>
   <x:si>
     <x:t>1230204</x:t>
@@ -326,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -634,8 +643,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="34.830625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="54.720625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="36.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="56.170625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -973,7 +982,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4303115393</x:v>
+        <x:v>45927.8409746528</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1005,7 +1014,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45913.3937876505</x:v>
+        <x:v>45907.4303115393</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1046,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6648132755</x:v>
+        <x:v>45913.3937876505</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1078,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.404844213</x:v>
+        <x:v>45907.6648132755</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6646134259</x:v>
+        <x:v>45913.404844213</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45913.4060014699</x:v>
+        <x:v>45907.6646134259</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45913.4054733796</x:v>
+        <x:v>45913.4060014699</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1206,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4175277778</x:v>
+        <x:v>45913.4054733796</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.4043574074</x:v>
+        <x:v>45907.4175277778</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1270,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.6596083681</x:v>
+        <x:v>45913.4043574074</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45913.6596083681</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1325,7 +1334,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4719599884</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1342,6 +1351,38 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45907.4719599884</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
